--- a/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/其他入库单模板.xlsx
+++ b/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/其他入库单模板.xlsx
@@ -10,14 +10,14 @@
     <sheet name="单据模板" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">单据模板!$A$1:$H$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">单据模板!$A$1:$I$19</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>品牌</t>
   </si>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>[4]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -269,6 +273,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -286,9 +293,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,25 +588,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="5" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" customHeight="1">
+    <row r="1" spans="1:9" ht="18.95" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -612,41 +615,45 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="29.1" customHeight="1">
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="29.1" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="3" hidden="1" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="3" hidden="1" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="6" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="6" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -666,13 +673,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.1" customHeight="1">
+    <row r="6" spans="1:9" ht="14.1" customHeight="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -683,8 +693,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.1" customHeight="1">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -695,8 +706,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.1" customHeight="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -707,8 +719,9 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.1" customHeight="1">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -719,8 +732,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.1" customHeight="1">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -731,8 +745,9 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.1" customHeight="1">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -743,8 +758,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.1" customHeight="1">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -755,8 +771,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.1" customHeight="1">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -767,8 +784,9 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.1" customHeight="1">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -779,8 +797,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.1" customHeight="1">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -791,8 +810,9 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.1" customHeight="1">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -803,8 +823,9 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.1" customHeight="1">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -815,8 +836,9 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.1" customHeight="1">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.1" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -825,12 +847,13 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="45" customHeight="1">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="45" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -841,13 +864,14 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.95" customHeight="1"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A2:H4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A2:I4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.196527777777778" right="0.75138888888888899" top="0.59027777777777801" bottom="0.196527777777778" header="0.51180555555555596" footer="0.51180555555555596"/>
